--- a/tools/demo统计表.xlsx
+++ b/tools/demo统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="统计结果" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>年份</t>
   </si>
@@ -41,6 +41,27 @@
   </si>
   <si>
     <t>学前教育专业毕业人数</t>
+  </si>
+  <si>
+    <t>入职三年以上教师人数</t>
+  </si>
+  <si>
+    <t>青年教师人数</t>
+  </si>
+  <si>
+    <t>中年教师人数</t>
+  </si>
+  <si>
+    <t>老年教师人数</t>
+  </si>
+  <si>
+    <t>一级教师人数</t>
+  </si>
+  <si>
+    <t>二级教师人数</t>
+  </si>
+  <si>
+    <t>三级教师人数</t>
   </si>
   <si>
     <t>2010</t>
@@ -56,20 +77,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <charset val="134"/>
-      <color theme="1"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="宋体"/>
     </font>
     <font>
       <b/>
@@ -111,13 +125,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,19 +437,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9" customHeight="1"/>
+  <dimension ref="A1:Z4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="25" style="1" customWidth="1"/>
-    <col min="4" max="12" width="25" style="2" customWidth="1"/>
+    <col min="4" max="26" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -472,10 +481,52 @@
       <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>18</v>
@@ -516,10 +567,59 @@
         <f>K2 / B2</f>
         <v>0.8888888888888888</v>
       </c>
+      <c r="M2" s="1">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2">
+        <f>M2 / B2</f>
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2">
+        <f>O2 / B2</f>
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>11</v>
+      </c>
+      <c r="R2" s="2">
+        <f>Q2 / B2</f>
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="S2" s="1">
+        <v>19</v>
+      </c>
+      <c r="T2" s="2">
+        <f>Q2 / B2</f>
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="U2" s="1">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2">
+        <f>U2 / B2</f>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="W2" s="1">
+        <v>4</v>
+      </c>
+      <c r="X2" s="2">
+        <f>U2 / B2</f>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>U2 / B2</f>
+        <v>0.3333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>23</v>
@@ -531,14 +631,14 @@
         <f>C3 / B3</f>
         <v>0.7391304347826086</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>7</v>
       </c>
       <c r="F3" s="2">
         <f>E3 / B3</f>
         <v>0.30434782608695654</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>C3 + E3</f>
         <v>24</v>
       </c>
@@ -546,24 +646,73 @@
         <f>G3 / B3</f>
         <v>1.0434782608695652</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>24</v>
       </c>
       <c r="J3" s="2">
         <f>I3 / B3</f>
         <v>1.0434782608695652</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>20</v>
       </c>
       <c r="L3" s="2">
         <f>K3 / B3</f>
         <v>0.8695652173913043</v>
       </c>
+      <c r="M3" s="1">
+        <v>17</v>
+      </c>
+      <c r="N3" s="2">
+        <f>M3 / B3</f>
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="O3" s="1">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <f>O3 / B3</f>
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2">
+        <f>Q3 / B3</f>
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="S3" s="1">
+        <v>24</v>
+      </c>
+      <c r="T3" s="2">
+        <f>Q3 / B3</f>
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="U3" s="1">
+        <v>6</v>
+      </c>
+      <c r="V3" s="2">
+        <f>U3 / B3</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4</v>
+      </c>
+      <c r="X3" s="2">
+        <f>U3 / B3</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>U3 / B3</f>
+        <v>0.2608695652173913</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>27</v>
@@ -575,14 +724,14 @@
         <f>C4 / B4</f>
         <v>0.7037037037037037</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="2">
         <f>E4 / B4</f>
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>C4 + E4</f>
         <v>28</v>
       </c>
@@ -590,23 +739,72 @@
         <f>G4 / B4</f>
         <v>1.037037037037037</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>27</v>
       </c>
       <c r="J4" s="2">
         <f>I4 / B4</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>23</v>
       </c>
       <c r="L4" s="2">
         <f>K4 / B4</f>
         <v>0.8518518518518519</v>
       </c>
+      <c r="M4" s="1">
+        <v>17</v>
+      </c>
+      <c r="N4" s="2">
+        <f>M4 / B4</f>
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="O4" s="1">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <f>O4 / B4</f>
+        <v>0.6296296296296297</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>11</v>
+      </c>
+      <c r="R4" s="2">
+        <f>Q4 / B4</f>
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="S4" s="1">
+        <v>28</v>
+      </c>
+      <c r="T4" s="2">
+        <f>Q4 / B4</f>
+        <v>0.4074074074074074</v>
+      </c>
+      <c r="U4" s="1">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2">
+        <f>U4 / B4</f>
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2">
+        <f>U4 / B4</f>
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>U4 / B4</f>
+        <v>0.2222222222222222</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>